--- a/lista_outliers.xlsx
+++ b/lista_outliers.xlsx
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -810,17 +810,29 @@
       <c r="R2">
         <v>998.8</v>
       </c>
+      <c r="S2">
+        <v>100.2</v>
+      </c>
       <c r="T2">
         <v>10.02</v>
       </c>
+      <c r="U2">
+        <v>10.34</v>
+      </c>
       <c r="V2">
         <v>3</v>
       </c>
       <c r="W2">
         <v>86.06</v>
       </c>
+      <c r="X2">
+        <v>86.05</v>
+      </c>
       <c r="Y2">
         <v>5.184</v>
+      </c>
+      <c r="Z2">
+        <v>5.17</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -1028,7 +1040,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1102,17 +1114,29 @@
       <c r="R3">
         <v>998.8</v>
       </c>
+      <c r="S3">
+        <v>100.2</v>
+      </c>
       <c r="T3">
         <v>13.82</v>
       </c>
+      <c r="U3">
+        <v>13.64</v>
+      </c>
       <c r="V3">
         <v>3</v>
       </c>
       <c r="W3">
         <v>60.14</v>
       </c>
+      <c r="X3">
+        <v>60.19</v>
+      </c>
       <c r="Y3">
         <v>3.111</v>
+      </c>
+      <c r="Z3">
+        <v>2.821</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -1320,7 +1344,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1395,17 +1419,29 @@
       <c r="R4">
         <v>100</v>
       </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
       <c r="T4">
         <v>0.075</v>
       </c>
+      <c r="U4">
+        <v>0.075</v>
+      </c>
       <c r="V4">
         <v>3</v>
       </c>
       <c r="W4">
         <v>36</v>
       </c>
+      <c r="X4">
+        <v>36.87</v>
+      </c>
       <c r="Y4">
         <v>0.023</v>
+      </c>
+      <c r="Z4">
+        <v>0.025</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -1566,7 +1602,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1639,17 +1675,29 @@
       <c r="R5">
         <v>99.49</v>
       </c>
+      <c r="S5">
+        <v>99.45999999999999</v>
+      </c>
       <c r="T5">
         <v>0.008999999999999999</v>
       </c>
+      <c r="U5">
+        <v>0.5527</v>
+      </c>
       <c r="V5">
         <v>10</v>
       </c>
       <c r="W5">
         <v>55.57</v>
       </c>
+      <c r="X5">
+        <v>55.49</v>
+      </c>
       <c r="Y5">
         <v>0.42</v>
+      </c>
+      <c r="Z5">
+        <v>0.5544</v>
       </c>
       <c r="AA5">
         <v>10</v>
@@ -1818,7 +1866,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1892,17 +1940,29 @@
       <c r="R6">
         <v>100.4</v>
       </c>
+      <c r="S6">
+        <v>100.4</v>
+      </c>
       <c r="T6">
         <v>0.012</v>
       </c>
+      <c r="U6">
+        <v>0.4943</v>
+      </c>
       <c r="V6">
         <v>2</v>
       </c>
       <c r="W6">
         <v>0.623</v>
       </c>
+      <c r="X6">
+        <v>62.08</v>
+      </c>
       <c r="Y6">
         <v>0.011</v>
+      </c>
+      <c r="Z6">
+        <v>0.7451</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -2053,7 +2113,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2126,17 +2186,29 @@
       <c r="R7">
         <v>100</v>
       </c>
+      <c r="S7">
+        <v>99.89</v>
+      </c>
       <c r="T7">
         <v>0.025</v>
       </c>
+      <c r="U7">
+        <v>2.378</v>
+      </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
         <v>0.618</v>
       </c>
+      <c r="X7">
+        <v>62.49</v>
+      </c>
       <c r="Y7">
         <v>0.057</v>
+      </c>
+      <c r="Z7">
+        <v>4.973</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -2287,7 +2359,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2360,14 +2432,23 @@
       <c r="R8">
         <v>100</v>
       </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
       <c r="V8">
         <v>4</v>
       </c>
       <c r="W8">
         <v>37.34</v>
       </c>
+      <c r="X8">
+        <v>37.2</v>
+      </c>
       <c r="Y8">
         <v>0.325</v>
+      </c>
+      <c r="Z8">
+        <v>0.4739</v>
       </c>
       <c r="AA8">
         <v>4</v>
@@ -2516,7 +2597,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2589,14 +2670,23 @@
       <c r="R9">
         <v>100</v>
       </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
       <c r="V9">
         <v>4</v>
       </c>
       <c r="W9">
         <v>56.82</v>
       </c>
+      <c r="X9">
+        <v>56.64</v>
+      </c>
       <c r="Y9">
         <v>0.649</v>
+      </c>
+      <c r="Z9">
+        <v>0.7109</v>
       </c>
       <c r="AA9">
         <v>4</v>
@@ -2801,7 +2891,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2874,14 +2964,23 @@
       <c r="R10">
         <v>100</v>
       </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
       <c r="V10">
         <v>4</v>
       </c>
       <c r="W10">
         <v>37.99</v>
       </c>
+      <c r="X10">
+        <v>37.44</v>
+      </c>
       <c r="Y10">
         <v>0.649</v>
+      </c>
+      <c r="Z10">
+        <v>0.7109</v>
       </c>
       <c r="AA10">
         <v>4</v>
@@ -3086,7 +3185,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3160,15 +3259,24 @@
       <c r="R11">
         <v>100</v>
       </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
       <c r="V11">
         <v>4</v>
       </c>
       <c r="W11">
         <v>63.4</v>
       </c>
+      <c r="X11">
+        <v>63.6</v>
+      </c>
       <c r="Y11">
         <v>0.506</v>
       </c>
+      <c r="Z11">
+        <v>1.103</v>
+      </c>
       <c r="AA11">
         <v>4</v>
       </c>
@@ -3327,6 +3435,16 @@
       <c r="BM11" t="inlineStr">
         <is>
           <t>10µM RA, 4 mM L-glutamine, 100 U/mL penicillin, 100 µg/mLstreptomycin, 1% non-essential aminoacids, 50 ng/mL of BDNF</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
@@ -3360,7 +3478,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3434,15 +3552,24 @@
       <c r="R12">
         <v>100</v>
       </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
       <c r="V12">
         <v>4</v>
       </c>
       <c r="W12">
         <v>56.25</v>
       </c>
+      <c r="X12">
+        <v>56.62</v>
+      </c>
       <c r="Y12">
         <v>0.506</v>
       </c>
+      <c r="Z12">
+        <v>0.7353</v>
+      </c>
       <c r="AA12">
         <v>4</v>
       </c>
@@ -3601,6 +3728,16 @@
       <c r="BM12" t="inlineStr">
         <is>
           <t>10µM RA, 4 mM L-glutamine, 100 U/mL penicillin, 100 µg/mLstreptomycin, 1% non-essential aminoacids, 50 ng/mL of BDNF</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
@@ -3634,7 +3771,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -3708,15 +3845,24 @@
       <c r="R13">
         <v>100</v>
       </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
       <c r="V13">
         <v>4</v>
       </c>
       <c r="W13">
         <v>37.28</v>
       </c>
+      <c r="X13">
+        <v>37.87</v>
+      </c>
       <c r="Y13">
         <v>0.762</v>
       </c>
+      <c r="Z13">
+        <v>0.7353</v>
+      </c>
       <c r="AA13">
         <v>4</v>
       </c>
@@ -3875,6 +4021,16 @@
       <c r="BM13" t="inlineStr">
         <is>
           <t>10µM RA, 4 mM L-glutamine, 100 U/mL penicillin, 100 µg/mLstreptomycin, 1% non-essential aminoacids, 50 ng/mL of BDNF</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
@@ -3908,7 +4064,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4138,9 +4294,19 @@
           <t>Unclear</t>
         </is>
       </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>10μM RA</t>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>10µM</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
@@ -4172,7 +4338,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4397,9 +4563,19 @@
           <t>Unclear</t>
         </is>
       </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>100nM RA</t>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>100nM</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BP15" t="inlineStr">
@@ -4431,7 +4607,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -4633,7 +4809,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4835,7 +5011,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -5110,18 +5286,30 @@
       <c r="R19">
         <v>100</v>
       </c>
+      <c r="S19">
+        <v>100.3</v>
+      </c>
       <c r="T19">
         <v>0.875</v>
       </c>
+      <c r="U19">
+        <v>0.9643000000000001</v>
+      </c>
       <c r="V19">
         <v>3</v>
       </c>
       <c r="W19">
         <v>46.56</v>
       </c>
+      <c r="X19">
+        <v>46.68</v>
+      </c>
       <c r="Y19">
         <v>1.172</v>
       </c>
+      <c r="Z19">
+        <v>0.6479</v>
+      </c>
       <c r="AA19">
         <v>3</v>
       </c>
@@ -5132,7 +5320,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>(unclear)'all experiments are means/were performed in triplicates'</t>
+          <t>replicates</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -5296,7 +5484,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -5370,17 +5558,29 @@
       <c r="R20">
         <v>998.8</v>
       </c>
+      <c r="S20">
+        <v>100.2</v>
+      </c>
       <c r="T20">
         <v>10.02</v>
       </c>
+      <c r="U20">
+        <v>10.34</v>
+      </c>
       <c r="V20">
         <v>3</v>
       </c>
       <c r="W20">
         <v>86.06</v>
       </c>
+      <c r="X20">
+        <v>86.05</v>
+      </c>
       <c r="Y20">
         <v>5.184</v>
+      </c>
+      <c r="Z20">
+        <v>5.17</v>
       </c>
       <c r="AA20">
         <v>3</v>
@@ -5588,7 +5788,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -5662,17 +5862,29 @@
       <c r="R21">
         <v>998.8</v>
       </c>
+      <c r="S21">
+        <v>100.2</v>
+      </c>
       <c r="T21">
         <v>17.28</v>
       </c>
+      <c r="U21">
+        <v>16.93</v>
+      </c>
       <c r="V21">
         <v>3</v>
       </c>
       <c r="W21">
         <v>68.78</v>
       </c>
+      <c r="X21">
+        <v>68.65000000000001</v>
+      </c>
       <c r="Y21">
         <v>14.52</v>
+      </c>
+      <c r="Z21">
+        <v>14.58</v>
       </c>
       <c r="AA21">
         <v>3</v>
@@ -5880,7 +6092,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -5954,17 +6166,29 @@
       <c r="R22">
         <v>998.8</v>
       </c>
+      <c r="S22">
+        <v>100.2</v>
+      </c>
       <c r="T22">
         <v>13.82</v>
       </c>
+      <c r="U22">
+        <v>13.64</v>
+      </c>
       <c r="V22">
         <v>3</v>
       </c>
       <c r="W22">
         <v>60.14</v>
       </c>
+      <c r="X22">
+        <v>60.19</v>
+      </c>
       <c r="Y22">
         <v>3.111</v>
+      </c>
+      <c r="Z22">
+        <v>2.821</v>
       </c>
       <c r="AA22">
         <v>3</v>
@@ -6172,7 +6396,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -6245,17 +6469,29 @@
       <c r="R23">
         <v>100.3</v>
       </c>
+      <c r="S23">
+        <v>101.2</v>
+      </c>
       <c r="T23">
         <v>0.779</v>
       </c>
+      <c r="U23">
+        <v>0.3621</v>
+      </c>
       <c r="V23">
         <v>3</v>
       </c>
       <c r="W23">
         <v>43.38</v>
       </c>
+      <c r="X23">
+        <v>43.42</v>
+      </c>
       <c r="Y23">
         <v>1.299</v>
+      </c>
+      <c r="Z23">
+        <v>1.415</v>
       </c>
       <c r="AA23">
         <v>3</v>
@@ -6413,7 +6649,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -6654,7 +6890,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -6727,17 +6963,29 @@
       <c r="R25">
         <v>100.6</v>
       </c>
+      <c r="S25">
+        <v>100.9</v>
+      </c>
       <c r="T25">
         <v>1.392</v>
       </c>
+      <c r="U25">
+        <v>1.289</v>
+      </c>
       <c r="V25">
         <v>2</v>
       </c>
       <c r="W25">
         <v>18.8</v>
       </c>
+      <c r="X25">
+        <v>18.53</v>
+      </c>
       <c r="Y25">
         <v>0.348</v>
+      </c>
+      <c r="Z25">
+        <v>0.7661</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -6903,7 +7151,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -6978,17 +7226,29 @@
       <c r="R26">
         <v>100</v>
       </c>
+      <c r="S26">
+        <v>100</v>
+      </c>
       <c r="T26">
         <v>0.075</v>
       </c>
+      <c r="U26">
+        <v>0.075</v>
+      </c>
       <c r="V26">
         <v>3</v>
       </c>
       <c r="W26">
         <v>36</v>
       </c>
+      <c r="X26">
+        <v>36.87</v>
+      </c>
       <c r="Y26">
         <v>0.023</v>
+      </c>
+      <c r="Z26">
+        <v>0.025</v>
       </c>
       <c r="AA26">
         <v>3</v>
@@ -7149,7 +7409,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -7222,17 +7482,29 @@
       <c r="R27">
         <v>99.8</v>
       </c>
+      <c r="S27">
+        <v>100.3</v>
+      </c>
       <c r="T27">
         <v>1.51</v>
       </c>
+      <c r="U27">
+        <v>1.231</v>
+      </c>
       <c r="V27">
         <v>3</v>
       </c>
       <c r="W27">
         <v>21.33</v>
       </c>
+      <c r="X27">
+        <v>21.2</v>
+      </c>
       <c r="Y27">
         <v>1.699</v>
+      </c>
+      <c r="Z27">
+        <v>1.478</v>
       </c>
       <c r="AA27">
         <v>3</v>
@@ -7385,7 +7657,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7631,7 +7903,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -7865,9 +8137,19 @@
           <t>Unclear</t>
         </is>
       </c>
-      <c r="BM29" t="inlineStr">
-        <is>
-          <t>10μM RA</t>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>10µM</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr">
@@ -7902,7 +8184,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -7975,17 +8257,29 @@
       <c r="R30">
         <v>99.49</v>
       </c>
+      <c r="S30">
+        <v>99.45999999999999</v>
+      </c>
       <c r="T30">
         <v>0.008999999999999999</v>
       </c>
+      <c r="U30">
+        <v>0.5527</v>
+      </c>
       <c r="V30">
         <v>10</v>
       </c>
       <c r="W30">
         <v>55.57</v>
       </c>
+      <c r="X30">
+        <v>55.49</v>
+      </c>
       <c r="Y30">
         <v>0.42</v>
+      </c>
+      <c r="Z30">
+        <v>0.5544</v>
       </c>
       <c r="AA30">
         <v>10</v>
@@ -8154,7 +8448,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -8228,17 +8522,29 @@
       <c r="R31">
         <v>100.4</v>
       </c>
+      <c r="S31">
+        <v>100.4</v>
+      </c>
       <c r="T31">
         <v>0.012</v>
       </c>
+      <c r="U31">
+        <v>0.4943</v>
+      </c>
       <c r="V31">
         <v>2</v>
       </c>
       <c r="W31">
         <v>0.623</v>
       </c>
+      <c r="X31">
+        <v>62.08</v>
+      </c>
       <c r="Y31">
         <v>0.011</v>
+      </c>
+      <c r="Z31">
+        <v>0.7451</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8389,7 +8695,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -8462,17 +8768,29 @@
       <c r="R32">
         <v>100</v>
       </c>
+      <c r="S32">
+        <v>99.89</v>
+      </c>
       <c r="T32">
         <v>0.025</v>
       </c>
+      <c r="U32">
+        <v>2.378</v>
+      </c>
       <c r="V32">
         <v>2</v>
       </c>
       <c r="W32">
         <v>0.618</v>
       </c>
+      <c r="X32">
+        <v>62.49</v>
+      </c>
       <c r="Y32">
         <v>0.057</v>
+      </c>
+      <c r="Z32">
+        <v>4.973</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8623,7 +8941,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -8696,14 +9014,23 @@
       <c r="R33">
         <v>100</v>
       </c>
+      <c r="S33">
+        <v>100</v>
+      </c>
       <c r="V33">
         <v>4</v>
       </c>
       <c r="W33">
         <v>37.34</v>
       </c>
+      <c r="X33">
+        <v>37.2</v>
+      </c>
       <c r="Y33">
         <v>0.325</v>
+      </c>
+      <c r="Z33">
+        <v>0.4739</v>
       </c>
       <c r="AA33">
         <v>4</v>
@@ -8852,7 +9179,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -8925,14 +9252,23 @@
       <c r="R34">
         <v>100</v>
       </c>
+      <c r="S34">
+        <v>100</v>
+      </c>
       <c r="V34">
         <v>4</v>
       </c>
       <c r="W34">
         <v>63.64</v>
       </c>
+      <c r="X34">
+        <v>63.51</v>
+      </c>
       <c r="Y34">
         <v>0.649</v>
+      </c>
+      <c r="Z34">
+        <v>0.7109</v>
       </c>
       <c r="AA34">
         <v>4</v>
@@ -9137,7 +9473,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -9210,14 +9546,23 @@
       <c r="R35">
         <v>100</v>
       </c>
+      <c r="S35">
+        <v>100</v>
+      </c>
       <c r="V35">
         <v>4</v>
       </c>
       <c r="W35">
         <v>56.82</v>
       </c>
+      <c r="X35">
+        <v>56.64</v>
+      </c>
       <c r="Y35">
         <v>0.649</v>
+      </c>
+      <c r="Z35">
+        <v>0.7109</v>
       </c>
       <c r="AA35">
         <v>4</v>
@@ -9422,7 +9767,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -9495,14 +9840,23 @@
       <c r="R36">
         <v>100</v>
       </c>
+      <c r="S36">
+        <v>100</v>
+      </c>
       <c r="V36">
         <v>4</v>
       </c>
       <c r="W36">
         <v>37.99</v>
       </c>
+      <c r="X36">
+        <v>37.44</v>
+      </c>
       <c r="Y36">
         <v>0.649</v>
+      </c>
+      <c r="Z36">
+        <v>0.7109</v>
       </c>
       <c r="AA36">
         <v>4</v>
@@ -9707,7 +10061,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -9781,14 +10135,23 @@
       <c r="R37">
         <v>100</v>
       </c>
+      <c r="S37">
+        <v>100</v>
+      </c>
       <c r="V37">
         <v>4</v>
       </c>
       <c r="W37">
         <v>36.59</v>
       </c>
+      <c r="X37">
+        <v>37.13</v>
+      </c>
       <c r="Y37">
         <v>1.287</v>
+      </c>
+      <c r="Z37">
+        <v>1.103</v>
       </c>
       <c r="AA37">
         <v>4</v>
@@ -9947,7 +10310,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -10021,15 +10384,24 @@
       <c r="R38">
         <v>100</v>
       </c>
+      <c r="S38">
+        <v>100</v>
+      </c>
       <c r="V38">
         <v>4</v>
       </c>
       <c r="W38">
         <v>63.4</v>
       </c>
+      <c r="X38">
+        <v>63.6</v>
+      </c>
       <c r="Y38">
         <v>0.506</v>
       </c>
+      <c r="Z38">
+        <v>1.103</v>
+      </c>
       <c r="AA38">
         <v>4</v>
       </c>
@@ -10188,6 +10560,16 @@
       <c r="BM38" t="inlineStr">
         <is>
           <t>10µM RA, 4 mM L-glutamine, 100 U/mL penicillin, 100 µg/mLstreptomycin, 1% non-essential aminoacids, 50 ng/mL of BDNF</t>
+        </is>
+      </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BP38" t="inlineStr">
@@ -10221,7 +10603,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -10295,15 +10677,24 @@
       <c r="R39">
         <v>100</v>
       </c>
+      <c r="S39">
+        <v>100</v>
+      </c>
       <c r="V39">
         <v>4</v>
       </c>
       <c r="W39">
         <v>56.25</v>
       </c>
+      <c r="X39">
+        <v>56.62</v>
+      </c>
       <c r="Y39">
         <v>0.506</v>
       </c>
+      <c r="Z39">
+        <v>0.7353</v>
+      </c>
       <c r="AA39">
         <v>4</v>
       </c>
@@ -10462,6 +10853,16 @@
       <c r="BM39" t="inlineStr">
         <is>
           <t>10µM RA, 4 mM L-glutamine, 100 U/mL penicillin, 100 µg/mLstreptomycin, 1% non-essential aminoacids, 50 ng/mL of BDNF</t>
+        </is>
+      </c>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BP39" t="inlineStr">
@@ -10495,7 +10896,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -10569,15 +10970,24 @@
       <c r="R40">
         <v>100</v>
       </c>
+      <c r="S40">
+        <v>100</v>
+      </c>
       <c r="V40">
         <v>4</v>
       </c>
       <c r="W40">
         <v>37.28</v>
       </c>
+      <c r="X40">
+        <v>37.87</v>
+      </c>
       <c r="Y40">
         <v>0.762</v>
       </c>
+      <c r="Z40">
+        <v>0.7353</v>
+      </c>
       <c r="AA40">
         <v>4</v>
       </c>
@@ -10736,6 +11146,16 @@
       <c r="BM40" t="inlineStr">
         <is>
           <t>10µM RA, 4 mM L-glutamine, 100 U/mL penicillin, 100 µg/mLstreptomycin, 1% non-essential aminoacids, 50 ng/mL of BDNF</t>
+        </is>
+      </c>
+      <c r="BN40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BO40" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BP40" t="inlineStr">
@@ -10769,7 +11189,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -10843,14 +11263,23 @@
       <c r="R41">
         <v>100</v>
       </c>
+      <c r="S41">
+        <v>100</v>
+      </c>
       <c r="V41">
         <v>4</v>
       </c>
       <c r="W41">
         <v>62.6</v>
       </c>
+      <c r="X41">
+        <v>62.45</v>
+      </c>
       <c r="Y41">
         <v>0.796</v>
+      </c>
+      <c r="Z41">
+        <v>1.581</v>
       </c>
       <c r="AA41">
         <v>4</v>
@@ -11011,7 +11440,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -11084,15 +11513,24 @@
       <c r="R42">
         <v>100</v>
       </c>
+      <c r="S42">
+        <v>100</v>
+      </c>
       <c r="V42">
         <v>3</v>
       </c>
       <c r="W42">
         <v>49.91</v>
       </c>
+      <c r="X42">
+        <v>50.37</v>
+      </c>
       <c r="Y42">
         <v>0.468</v>
       </c>
+      <c r="Z42">
+        <v>1.977</v>
+      </c>
       <c r="AA42">
         <v>3</v>
       </c>
@@ -11257,9 +11695,19 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="BM42" t="inlineStr">
-        <is>
-          <t>100nM RA</t>
+      <c r="BL42" t="inlineStr">
+        <is>
+          <t>100nM</t>
+        </is>
+      </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO42" t="inlineStr">
+        <is>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BP42" t="inlineStr">
@@ -11289,7 +11737,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -11519,9 +11967,19 @@
           <t>Unclear</t>
         </is>
       </c>
-      <c r="BM43" t="inlineStr">
-        <is>
-          <t>10μM RA</t>
+      <c r="BL43" t="inlineStr">
+        <is>
+          <t>10µM</t>
+        </is>
+      </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO43" t="inlineStr">
+        <is>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BP43" t="inlineStr">
@@ -11553,7 +12011,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -11783,9 +12241,19 @@
           <t>Unclear</t>
         </is>
       </c>
-      <c r="BM44" t="inlineStr">
-        <is>
-          <t>10μM RA</t>
+      <c r="BL44" t="inlineStr">
+        <is>
+          <t>10µM</t>
+        </is>
+      </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO44" t="inlineStr">
+        <is>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BP44" t="inlineStr">
@@ -11817,7 +12285,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -11890,14 +12358,23 @@
       <c r="R45">
         <v>1.006</v>
       </c>
+      <c r="S45">
+        <v>100</v>
+      </c>
       <c r="V45">
         <v>4</v>
       </c>
       <c r="W45">
         <v>81</v>
       </c>
+      <c r="X45">
+        <v>82.08</v>
+      </c>
       <c r="Y45">
         <v>0.03</v>
+      </c>
+      <c r="Z45">
+        <v>2.5</v>
       </c>
       <c r="AA45">
         <v>4</v>
@@ -12038,7 +12515,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -12111,14 +12588,26 @@
       <c r="R46">
         <v>100</v>
       </c>
+      <c r="S46">
+        <v>100</v>
+      </c>
+      <c r="U46">
+        <v>5.822</v>
+      </c>
       <c r="V46">
         <v>3</v>
       </c>
       <c r="W46">
         <v>45.39</v>
       </c>
+      <c r="X46">
+        <v>46.03</v>
+      </c>
       <c r="Y46">
         <v>1.184</v>
+      </c>
+      <c r="Z46">
+        <v>1.011</v>
       </c>
       <c r="AA46">
         <v>3</v>
@@ -12248,7 +12737,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -12450,7 +12939,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -12652,7 +13141,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
